--- a/variaciones.xlsx
+++ b/variaciones.xlsx
@@ -915,10 +915,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,6 +1820,32 @@
         <v>-18.634799999999998</v>
       </c>
     </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>44348</v>
+      </c>
+      <c r="B33" s="4">
+        <v>4979000.09</v>
+      </c>
+      <c r="C33" s="22">
+        <v>-7.5539678545999998</v>
+      </c>
+      <c r="D33" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>3133701.0311578899</v>
+      </c>
+      <c r="F33">
+        <v>3.4663089999999999</v>
+      </c>
+      <c r="G33" s="3">
+        <v>35822.629999999997</v>
+      </c>
+      <c r="H33" s="2">
+        <v>-22.854430000000001</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>

--- a/variaciones.xlsx
+++ b/variaciones.xlsx
@@ -915,10 +915,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,6 +1846,55 @@
         <v>-22.854430000000001</v>
       </c>
     </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>44379</v>
+      </c>
+      <c r="B34" s="4">
+        <v>5390000.8899999997</v>
+      </c>
+      <c r="C34">
+        <v>8.2546669999999995</v>
+      </c>
+      <c r="D34" s="3">
+        <v>19</v>
+      </c>
+      <c r="E34" s="3">
+        <v>3531764.1185047599</v>
+      </c>
+      <c r="F34">
+        <v>12.70265</v>
+      </c>
+      <c r="G34" s="3">
+        <v>34424.269999999997</v>
+      </c>
+      <c r="H34">
+        <v>-3.9035600000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>44411</v>
+      </c>
+      <c r="B35" s="4">
+        <v>6234000.3700000001</v>
+      </c>
+      <c r="C35">
+        <v>15.65863</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4097401.4445500001</v>
+      </c>
+      <c r="F35">
+        <v>16.015709999999999</v>
+      </c>
+      <c r="G35" s="3">
+        <v>45686.31</v>
+      </c>
+      <c r="H35">
+        <v>32.715406000000002</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D1619">
     <sortCondition descending="1" ref="D2"/>
